--- a/xlsx/软件_intext.xlsx
+++ b/xlsx/软件_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="562">
   <si>
     <t>软件</t>
   </si>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>電腦</t>
+    <t>电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E4%BB%B6</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E5%BC%8F%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>程式語言</t>
+    <t>程式语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%BB%9F%E8%BD%AF%E4%BB%B6</t>
@@ -71,31 +71,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BB%8B%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>中介軟體</t>
+    <t>中介软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E8%A1%8C%E6%AA%94</t>
   </si>
   <si>
-    <t>執行檔</t>
+    <t>执行档</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BD%E5%BC%8F%E5%BA%AB</t>
   </si>
   <si>
-    <t>函式庫</t>
+    <t>函式库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%B3%E6%9C%AC%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>腳本語言</t>
+    <t>脚本语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6%E9%AB%94</t>
   </si>
   <si>
-    <t>記憶體</t>
+    <t>记忆体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E7%A2%9F</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E7%A8%8B%E5%BC%8F</t>
   </si>
   <si>
-    <t>電腦程式</t>
+    <t>电脑程式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E6%96%87%E6%A1%A3</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%99%95%E7%90%86%E5%99%A8</t>
   </si>
   <si>
-    <t>微處理器</t>
+    <t>微处理器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CPU</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A2%B0%E7%A2%BC</t>
   </si>
   <si>
-    <t>機械碼</t>
+    <t>机械码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E7%A8%8B%E6%8E%A7%E5%88%B6</t>
@@ -149,31 +149,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E5%90%88%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>組合語言</t>
+    <t>组合语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A9%E6%86%B6%E7%A2%BC</t>
   </si>
   <si>
-    <t>助憶碼</t>
+    <t>助忆码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>高階語言</t>
+    <t>高阶语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>自然語言</t>
+    <t>自然语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E7%A2%BC</t>
   </si>
   <si>
-    <t>原始碼</t>
+    <t>原始码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%87%E4%BB%A4</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>作業系統</t>
+    <t>作业系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>應用軟體</t>
+    <t>应用软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%BB%9F</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%85%E5%8B%95%E7%A8%8B%E5%BC%8F</t>
   </si>
   <si>
-    <t>驅動程式</t>
+    <t>驱动程式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BeOS</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%9B%B8%E8%99%95%E7%90%86%E5%99%A8</t>
   </si>
   <si>
-    <t>文書處理器</t>
+    <t>文书处理器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WPS_Office</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%A0%81%E7%80%8F%E8%A6%BD%E5%99%A8</t>
   </si>
   <si>
-    <t>網頁瀏覽器</t>
+    <t>网页浏览器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Internet_Explorer</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/Opera%E9%9B%BB%E8%85%A6%E7%80%8F%E8%A6%BD%E5%99%A8</t>
   </si>
   <si>
-    <t>Opera電腦瀏覽器</t>
+    <t>Opera电脑浏览器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Konqueror</t>
@@ -629,13 +629,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E6%AF%92%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>防毒軟體</t>
+    <t>防毒软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/360%E5%AE%89%E5%85%A8%E8%A1%9B%E5%A3%AB</t>
   </si>
   <si>
-    <t>360安全衛士</t>
+    <t>360安全卫士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/360%E6%9D%80%E6%AF%92</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E9%A0%93%E9%98%B2%E6%AF%92</t>
   </si>
   <si>
-    <t>諾頓防毒</t>
+    <t>诺顿防毒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BitDefender</t>
@@ -725,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E6%9E%B6%E6%A7%8B</t>
   </si>
   <si>
-    <t>軟件架構</t>
+    <t>软件架构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B5%8C%E5%85%A5%E5%BC%8F%E7%B3%BB%E7%BB%9F</t>
@@ -737,43 +737,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%9E%E6%AF%94%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>類比電腦</t>
+    <t>类比电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>超級電腦</t>
+    <t>超级电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1%E5%B9%B3%E5%8F%B0</t>
   </si>
   <si>
-    <t>系統平台</t>
+    <t>系统平台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>韌體</t>
+    <t>韧体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E5%BD%A2%E4%BD%BF%E7%94%A8%E8%80%85%E4%BB%8B%E9%9D%A2</t>
   </si>
   <si>
-    <t>圖形使用者介面</t>
+    <t>图形使用者介面</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%B1%E9%82%8A</t>
   </si>
   <si>
-    <t>週邊</t>
+    <t>周边</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>個人電腦</t>
+    <t>个人电脑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/End-user_development</t>
@@ -785,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E6%95%B8%E6%93%9A%E5%AD%98%E8%B2%AF%E5%99%A8</t>
   </si>
   <si>
-    <t>電腦數據存貯器</t>
+    <t>电脑数据存贮器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E7%A2%9F</t>
@@ -803,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E7%A2%BC</t>
   </si>
   <si>
-    <t>機器碼</t>
+    <t>机器码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E5%88%B6%E6%B5%81%E7%A8%8B</t>
@@ -815,13 +815,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9A%AB%E5%AD%98%E5%99%A8</t>
   </si>
   <si>
-    <t>暫存器</t>
+    <t>暂存器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%B4%E5%9C%88</t>
   </si>
   <si>
-    <t>迴圈</t>
+    <t>回圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%90%E7%A8%8B%E5%BC%8F</t>
@@ -833,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%B3%E6%9C%AC</t>
   </si>
   <si>
-    <t>腳本</t>
+    <t>脚本</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/computer_configuration</t>
@@ -863,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E5%BC%8F%E9%8C%AF%E8%AA%A4</t>
   </si>
   <si>
-    <t>程式錯誤</t>
+    <t>程式错误</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/software_aging</t>
@@ -875,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E6%B8%AC%E8%A9%A6</t>
   </si>
   <si>
-    <t>軟體測試</t>
+    <t>软体测试</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%95%E5%85%83%E6%B5%8B%E8%AF%95</t>
@@ -911,13 +911,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F</t>
   </si>
   <si>
-    <t>微軟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>自由軟體</t>
+    <t>自由软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/OpenOffice</t>
@@ -929,25 +926,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%AB%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>共享軟體</t>
+    <t>共享软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B2%BB%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>免費軟體</t>
+    <t>免费软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%9C%89%E9%A0%98%E5%9F%9F</t>
   </si>
   <si>
-    <t>公有領域</t>
+    <t>公有领域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%97%E4%BD%9C%E6%AC%8A</t>
   </si>
   <si>
-    <t>著作權</t>
+    <t>着作权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E4%B8%93%E5%88%A9</t>
@@ -1025,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E9%80%9F%E6%87%89%E7%94%A8%E7%A8%8B%E5%BC%8F%E9%96%8B%E7%99%BC</t>
   </si>
   <si>
-    <t>快速應用程式開發</t>
+    <t>快速应用程式开发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9E%BA%E6%97%8B%E6%A8%A1%E5%9E%8B</t>
@@ -1049,37 +1046,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E8%A9%A6</t>
   </si>
   <si>
-    <t>調試</t>
+    <t>调试</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E7%B6%AD%E8%AD%B7</t>
   </si>
   <si>
-    <t>軟體維護</t>
+    <t>软体维护</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%A8%E8%AD%AF%E5%99%A8</t>
   </si>
   <si>
-    <t>編譯器</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%B5%E9%8C%AF%E5%B7%A5%E5%85%B7</t>
   </si>
   <si>
-    <t>偵錯工具</t>
+    <t>侦错工具</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E8%AD%AF%E5%99%A8</t>
   </si>
   <si>
-    <t>直譯器</t>
+    <t>直译器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8F%88%E6%8E%A5%E5%99%A8</t>
   </si>
   <si>
-    <t>鏈接器</t>
+    <t>链接器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%9C%AC%E7%BC%96%E8%BE%91%E5%99%A8</t>
@@ -1091,13 +1085,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E6%88%90%E9%96%8B%E7%99%BC%E7%92%B0%E5%A2%83</t>
   </si>
   <si>
-    <t>集成開發環境</t>
+    <t>集成开发环境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99%E6%A5%AD</t>
   </si>
   <si>
-    <t>服務業</t>
+    <t>服务业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E7%9B%96%E8%8C%A8</t>
@@ -1115,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%A6%E5%85%AC%E5%AE%A4%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>辦公室軟體</t>
+    <t>办公室软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BD%AF%E4%BB%B6%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -1127,19 +1121,19 @@
     <t>https://zh.wikipedia.org/wiki/GNU%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>GNU計劃</t>
+    <t>GNU计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mozilla%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Mozilla基金會</t>
+    <t>Mozilla基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E8%B3%87%E8%A8%8A%E7%B6%B2%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>全球資訊網協會</t>
+    <t>全球资讯网协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91%E5%B7%A5%E7%A8%8B%E4%BB%BB%E5%8A%A1%E7%BB%84</t>
@@ -1217,7 +1211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97</t>
@@ -1241,7 +1235,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E7%A8%8B%E5%BC%8F%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>計算機程式設計</t>
+    <t>计算机程式设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E5%BA%8F%E8%AE%BE%E8%AE%A1%E8%AF%AD%E8%A8%80</t>
@@ -1253,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%90%E4%BB%A3%E7%A2%BC</t>
   </si>
   <si>
-    <t>源代碼</t>
+    <t>源代码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E5%B7%A5%E7%A8%8B</t>
@@ -1271,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E6%A5%AD</t>
   </si>
   <si>
-    <t>資訊業</t>
+    <t>资讯业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E6%8D%AE%E7%BB%93%E6%9E%84</t>
@@ -1325,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%AA%8C</t>
   </si>
   <si>
-    <t>網誌</t>
+    <t>网志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E8%AE%B8%E5%8F%AF%E8%AF%81</t>
@@ -1373,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E7%89%88%E6%9C%AC%E9%80%B1%E6%9C%9F</t>
   </si>
   <si>
-    <t>軟件版本週期</t>
+    <t>软件版本周期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%B8%E5%8F%AF%E5%8D%8F%E8%AE%AE</t>
@@ -1409,9 +1403,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B4%89%E7%89%87%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>鴉片軟體</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Public_domain_software</t>
   </si>
   <si>
@@ -1421,7 +1412,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%A4%E9%85%92%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>啤酒軟體</t>
+    <t>啤酒软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A%E8%BD%AF%E4%BB%B6</t>
@@ -1457,7 +1448,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>廣告軟體</t>
+    <t>广告软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%90%E8%B5%A0%E8%BD%AF%E4%BB%B6</t>
@@ -1469,13 +1460,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E7%9C%BE%E5%8B%9F%E8%B3%87</t>
   </si>
   <si>
-    <t>群眾募資</t>
+    <t>群众募资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B2%BB%E5%A2%9E%E5%80%BC</t>
   </si>
   <si>
-    <t>免費增值</t>
+    <t>免费增值</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Careware</t>
@@ -1505,7 +1496,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%94%E6%A1%88%E5%88%86%E4%BA%AB</t>
   </si>
   <si>
-    <t>檔案分享</t>
+    <t>档案分享</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/On-premises_software</t>
@@ -1523,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%81%E5%94%AE</t>
   </si>
   <si>
-    <t>綁售</t>
+    <t>绑售</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E5%8D%B3%E6%9C%8D%E5%8A%A1</t>
@@ -1559,13 +1550,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%B0%E8%89%B2%E8%BB%9F%E4%BB%B6</t>
   </si>
   <si>
-    <t>灰色軟件</t>
+    <t>灰色软件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E5%9A%87%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>恐嚇軟體</t>
+    <t>恐吓软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9C%E5%9C%A8%E9%99%84%E5%8A%A0%E8%BD%AF%E4%BB%B6</t>
@@ -1577,7 +1568,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%A7%E4%BB%B6</t>
   </si>
   <si>
-    <t>霧件</t>
+    <t>雾件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E8%BD%AF%E4%BB%B6</t>
@@ -1589,19 +1580,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E5%93%81%E5%A3%BD%E5%91%BD%E7%B5%90%E6%9D%9F</t>
   </si>
   <si>
-    <t>產品壽命結束</t>
+    <t>产品寿命结束</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%9C%9F%E6%94%AF%E6%8F%B4</t>
   </si>
   <si>
-    <t>長期支援</t>
+    <t>长期支援</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E7%B6%AD%E8%AD%B7%E8%80%85</t>
   </si>
   <si>
-    <t>軟體維護者</t>
+    <t>软体维护者</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Software_publisher</t>
@@ -1673,13 +1664,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E7%99%BC%E8%A1%8C%E6%96%B9%E5%BC%8F%E6%AF%94%E8%BC%83</t>
   </si>
   <si>
-    <t>軟體發行方式比較</t>
+    <t>软体发行方式比较</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1703,7 +1694,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -6430,7 +6421,7 @@
         <v>297</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>88</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -6456,10 +6447,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>298</v>
+      </c>
+      <c r="F152" t="s">
         <v>299</v>
-      </c>
-      <c r="F152" t="s">
-        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6485,10 +6476,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>300</v>
+      </c>
+      <c r="F153" t="s">
         <v>301</v>
-      </c>
-      <c r="F153" t="s">
-        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6514,10 +6505,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>302</v>
+      </c>
+      <c r="F154" t="s">
         <v>303</v>
-      </c>
-      <c r="F154" t="s">
-        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6543,10 +6534,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>304</v>
+      </c>
+      <c r="F155" t="s">
         <v>305</v>
-      </c>
-      <c r="F155" t="s">
-        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6572,10 +6563,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>306</v>
+      </c>
+      <c r="F156" t="s">
         <v>307</v>
-      </c>
-      <c r="F156" t="s">
-        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6601,10 +6592,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>308</v>
+      </c>
+      <c r="F157" t="s">
         <v>309</v>
-      </c>
-      <c r="F157" t="s">
-        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>3</v>
@@ -6630,10 +6621,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>310</v>
+      </c>
+      <c r="F158" t="s">
         <v>311</v>
-      </c>
-      <c r="F158" t="s">
-        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>5</v>
@@ -6659,10 +6650,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>312</v>
+      </c>
+      <c r="F159" t="s">
         <v>313</v>
-      </c>
-      <c r="F159" t="s">
-        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6688,10 +6679,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>314</v>
+      </c>
+      <c r="F160" t="s">
         <v>315</v>
-      </c>
-      <c r="F160" t="s">
-        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>10</v>
@@ -6717,10 +6708,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>316</v>
+      </c>
+      <c r="F161" t="s">
         <v>317</v>
-      </c>
-      <c r="F161" t="s">
-        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6746,10 +6737,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>318</v>
+      </c>
+      <c r="F162" t="s">
         <v>319</v>
-      </c>
-      <c r="F162" t="s">
-        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -6775,10 +6766,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>320</v>
+      </c>
+      <c r="F163" t="s">
         <v>321</v>
-      </c>
-      <c r="F163" t="s">
-        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>6</v>
@@ -6804,10 +6795,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>322</v>
+      </c>
+      <c r="F164" t="s">
         <v>323</v>
-      </c>
-      <c r="F164" t="s">
-        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -6833,10 +6824,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>324</v>
+      </c>
+      <c r="F165" t="s">
         <v>325</v>
-      </c>
-      <c r="F165" t="s">
-        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6862,10 +6853,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>326</v>
+      </c>
+      <c r="F166" t="s">
         <v>327</v>
-      </c>
-      <c r="F166" t="s">
-        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6891,10 +6882,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>328</v>
+      </c>
+      <c r="F167" t="s">
         <v>329</v>
-      </c>
-      <c r="F167" t="s">
-        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6920,10 +6911,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>330</v>
+      </c>
+      <c r="F168" t="s">
         <v>331</v>
-      </c>
-      <c r="F168" t="s">
-        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6949,10 +6940,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>332</v>
+      </c>
+      <c r="F169" t="s">
         <v>333</v>
-      </c>
-      <c r="F169" t="s">
-        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6978,10 +6969,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>334</v>
+      </c>
+      <c r="F170" t="s">
         <v>335</v>
-      </c>
-      <c r="F170" t="s">
-        <v>336</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7007,10 +6998,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>336</v>
+      </c>
+      <c r="F171" t="s">
         <v>337</v>
-      </c>
-      <c r="F171" t="s">
-        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7036,10 +7027,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>338</v>
+      </c>
+      <c r="F172" t="s">
         <v>339</v>
-      </c>
-      <c r="F172" t="s">
-        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7065,10 +7056,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>340</v>
+      </c>
+      <c r="F173" t="s">
         <v>341</v>
-      </c>
-      <c r="F173" t="s">
-        <v>342</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -7094,10 +7085,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>342</v>
+      </c>
+      <c r="F174" t="s">
         <v>343</v>
-      </c>
-      <c r="F174" t="s">
-        <v>344</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -7123,10 +7114,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>344</v>
+      </c>
+      <c r="F175" t="s">
         <v>345</v>
-      </c>
-      <c r="F175" t="s">
-        <v>346</v>
       </c>
       <c r="G175" t="n">
         <v>4</v>
@@ -7152,10 +7143,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>86</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7181,10 +7172,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7210,10 +7201,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7239,10 +7230,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7268,10 +7259,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7297,10 +7288,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7326,10 +7317,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7355,10 +7346,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7384,10 +7375,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7413,10 +7404,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7442,10 +7433,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7471,10 +7462,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7500,10 +7491,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7529,10 +7520,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7558,10 +7549,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7587,10 +7578,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7616,10 +7607,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7645,10 +7636,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7674,10 +7665,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7703,10 +7694,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7732,10 +7723,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -7761,10 +7752,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7790,10 +7781,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7819,10 +7810,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7848,10 +7839,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -7877,10 +7868,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7906,10 +7897,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7935,10 +7926,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F203" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G203" t="n">
         <v>15</v>
@@ -7964,10 +7955,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G204" t="n">
         <v>14</v>
@@ -7993,10 +7984,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8022,10 +8013,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F206" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8051,10 +8042,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F207" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8080,10 +8071,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F208" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8109,10 +8100,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F209" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8138,10 +8129,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F210" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -8167,10 +8158,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F211" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8196,10 +8187,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F212" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8225,10 +8216,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>314</v>
+      </c>
+      <c r="F213" t="s">
         <v>315</v>
-      </c>
-      <c r="F213" t="s">
-        <v>316</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8254,10 +8245,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F214" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8283,10 +8274,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F215" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8312,10 +8303,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F216" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8341,10 +8332,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F217" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8370,10 +8361,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F218" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8399,10 +8390,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F219" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8428,10 +8419,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G220" t="n">
         <v>6</v>
@@ -8457,10 +8448,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F221" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8486,10 +8477,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F222" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8515,10 +8506,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F223" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8544,10 +8535,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F224" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G224" t="n">
         <v>4</v>
@@ -8573,10 +8564,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F225" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8602,10 +8593,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>304</v>
+      </c>
+      <c r="F226" t="s">
         <v>305</v>
-      </c>
-      <c r="F226" t="s">
-        <v>306</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8631,10 +8622,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8660,10 +8651,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8689,10 +8680,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8718,10 +8709,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F230" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8747,10 +8738,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F231" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8776,10 +8767,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F232" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -8805,10 +8796,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F233" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8834,10 +8825,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F234" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8863,10 +8854,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F235" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8892,10 +8883,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8921,10 +8912,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8950,10 +8941,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8979,10 +8970,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9008,10 +8999,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9037,10 +9028,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>302</v>
+      </c>
+      <c r="F241" t="s">
         <v>303</v>
-      </c>
-      <c r="F241" t="s">
-        <v>304</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9066,10 +9057,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9095,10 +9086,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9124,10 +9115,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9153,10 +9144,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9182,10 +9173,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9211,10 +9202,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9240,10 +9231,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9269,10 +9260,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9298,10 +9289,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9327,10 +9318,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9356,10 +9347,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9385,10 +9376,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9414,10 +9405,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9443,10 +9434,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9472,10 +9463,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9501,10 +9492,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9530,10 +9521,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9559,10 +9550,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9588,10 +9579,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9617,10 +9608,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9646,10 +9637,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9675,10 +9666,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9704,10 +9695,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9733,10 +9724,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9762,10 +9753,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F266" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9791,10 +9782,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F267" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9820,10 +9811,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F268" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9849,10 +9840,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F269" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9878,10 +9869,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>344</v>
+      </c>
+      <c r="F270" t="s">
         <v>345</v>
-      </c>
-      <c r="F270" t="s">
-        <v>346</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -9907,10 +9898,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F271" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9936,10 +9927,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F272" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9965,10 +9956,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F273" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9994,10 +9985,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F274" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10023,10 +10014,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F275" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10052,10 +10043,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F276" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10081,10 +10072,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F277" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10110,10 +10101,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F278" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10139,10 +10130,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F279" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10168,10 +10159,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F280" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10197,10 +10188,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F281" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10226,10 +10217,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>310</v>
+      </c>
+      <c r="F282" t="s">
         <v>311</v>
-      </c>
-      <c r="F282" t="s">
-        <v>312</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10255,10 +10246,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F283" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10284,10 +10275,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F284" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10313,10 +10304,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F285" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G285" t="n">
         <v>3</v>
@@ -10342,10 +10333,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F286" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10371,10 +10362,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F287" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10400,10 +10391,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F288" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10429,10 +10420,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F289" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10458,10 +10449,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F290" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
